--- a/app/src/main/res/raw/safety_equipment.xlsx
+++ b/app/src/main/res/raw/safety_equipment.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7cfb192ce2913f5/Documents/Koc/App Project/Fiverr/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadshaheer/Desktop/Workplace/kocFleet/app/src/main/res/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C861D014-B6AC-4275-9471-31F0088191C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2870ED09-17F4-4F29-939E-134918108152}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Boats Condition" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -534,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -542,7 +544,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -561,28 +563,28 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -590,14 +592,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -605,14 +607,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -620,7 +622,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -733,42 +735,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,46 +779,46 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,36 +826,36 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +960,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +1019,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,59 +1051,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="66">
     <dxf>
@@ -1792,108 +1794,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="BY4" sqref="BY4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8125" customWidth="1"/>
-    <col min="3" max="3" width="6.5625" customWidth="1"/>
-    <col min="4" max="5" width="15.5625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5625" style="13" customWidth="1"/>
-    <col min="8" max="9" width="11.8125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.0625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="13" width="19.0625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="5" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="13" customWidth="1"/>
+    <col min="8" max="9" width="11.83203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="21" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9.5" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="12.5" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="12.5" customWidth="1"/>
-    <col min="36" max="37" width="10.8125" customWidth="1"/>
+    <col min="36" max="37" width="10.83203125" customWidth="1"/>
     <col min="38" max="39" width="11.5" customWidth="1"/>
-    <col min="40" max="41" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" customWidth="1"/>
-    <col min="44" max="44" width="10.0625" customWidth="1"/>
-    <col min="46" max="46" width="14.5625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.875" customWidth="1"/>
-    <col min="60" max="61" width="7.8125" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="8.5625" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="66" max="69" width="8.6875" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="8.0625" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="7.1875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="29.75" customWidth="1"/>
-    <col min="77" max="77" width="29.375" customWidth="1"/>
-    <col min="78" max="78" width="16.8125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10" customWidth="1"/>
+    <col min="46" max="46" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.83203125" customWidth="1"/>
+    <col min="60" max="61" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="69" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="8" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="29.6640625" customWidth="1"/>
+    <col min="77" max="77" width="29.33203125" customWidth="1"/>
+    <col min="78" max="78" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="17" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.9375" customWidth="1"/>
-    <col min="81" max="81" width="10.625" customWidth="1"/>
+    <col min="80" max="80" width="9" customWidth="1"/>
+    <col min="81" max="81" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-    </row>
-    <row r="2" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="51"/>
+      <c r="CN1" s="51"/>
+      <c r="CO1" s="51"/>
+    </row>
+    <row r="2" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="52"/>
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="52"/>
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="52"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="52"/>
+      <c r="CL2" s="52"/>
+      <c r="CM2" s="52"/>
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="52"/>
+    </row>
+    <row r="3" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="49">
         <v>1</v>
       </c>
@@ -1978,107 +2124,107 @@
         <v>21</v>
       </c>
       <c r="AS3" s="50"/>
-      <c r="AT3" s="51">
+      <c r="AT3" s="47">
         <v>22</v>
       </c>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="51">
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="47">
         <v>23</v>
       </c>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="51">
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="47">
         <v>24</v>
       </c>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="51">
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="47">
         <v>25</v>
       </c>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="51">
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="47">
         <v>26</v>
       </c>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="51">
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="47">
         <v>27</v>
       </c>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="51">
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="47">
         <v>28</v>
       </c>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="51">
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="47">
         <v>29</v>
       </c>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="51">
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="47">
         <v>30</v>
       </c>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="51">
+      <c r="BK3" s="48"/>
+      <c r="BL3" s="47">
         <v>31</v>
       </c>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="51">
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="47">
         <v>32</v>
       </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="51">
+      <c r="BO3" s="48"/>
+      <c r="BP3" s="47">
         <v>33</v>
       </c>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="51">
+      <c r="BQ3" s="48"/>
+      <c r="BR3" s="47">
         <v>34</v>
       </c>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="51">
+      <c r="BS3" s="48"/>
+      <c r="BT3" s="47">
         <v>35</v>
       </c>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="51">
+      <c r="BU3" s="48"/>
+      <c r="BV3" s="47">
         <v>36</v>
       </c>
-      <c r="BW3" s="52"/>
-      <c r="BX3" s="51">
+      <c r="BW3" s="48"/>
+      <c r="BX3" s="47">
         <v>37</v>
       </c>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="51">
+      <c r="BY3" s="48"/>
+      <c r="BZ3" s="47">
         <v>38</v>
       </c>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="51">
+      <c r="CA3" s="48"/>
+      <c r="CB3" s="47">
         <v>39</v>
       </c>
-      <c r="CC3" s="52"/>
-      <c r="CD3" s="53">
+      <c r="CC3" s="48"/>
+      <c r="CD3" s="43">
         <v>40</v>
       </c>
-      <c r="CE3" s="54"/>
-      <c r="CF3" s="53">
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="43">
         <v>41</v>
       </c>
-      <c r="CG3" s="54"/>
-      <c r="CH3" s="53">
+      <c r="CG3" s="44"/>
+      <c r="CH3" s="43">
         <v>42</v>
       </c>
-      <c r="CI3" s="54"/>
-      <c r="CJ3" s="53">
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="43">
         <v>43</v>
       </c>
-      <c r="CK3" s="54"/>
-      <c r="CL3" s="53">
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="43">
         <v>44</v>
       </c>
-      <c r="CM3" s="54"/>
-      <c r="CN3" s="53">
+      <c r="CM3" s="44"/>
+      <c r="CN3" s="43">
         <v>45</v>
       </c>
-      <c r="CO3" s="54"/>
-    </row>
-    <row r="4" spans="1:93" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="CO3" s="44"/>
+    </row>
+    <row r="4" spans="1:93" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="25" t="s">
         <v>78</v>
       </c>
@@ -2350,14 +2496,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="16"/>
@@ -2451,7 +2597,7 @@
       <c r="CN5" s="24"/>
       <c r="CO5" s="24"/>
     </row>
-    <row r="6" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <f>+A5+1</f>
         <v>2</v>
@@ -2459,7 +2605,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -2551,7 +2697,7 @@
       <c r="CN6" s="24"/>
       <c r="CO6" s="24"/>
     </row>
-    <row r="7" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <f t="shared" ref="A7:A68" si="0">+A6+1</f>
         <v>3</v>
@@ -2559,7 +2705,7 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -2651,7 +2797,7 @@
       <c r="CN7" s="24"/>
       <c r="CO7" s="24"/>
     </row>
-    <row r="8" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2659,7 +2805,7 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -2751,7 +2897,7 @@
       <c r="CN8" s="24"/>
       <c r="CO8" s="24"/>
     </row>
-    <row r="9" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2759,7 +2905,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -2851,7 +2997,7 @@
       <c r="CN9" s="24"/>
       <c r="CO9" s="24"/>
     </row>
-    <row r="10" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2859,7 +3005,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="57" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="16"/>
@@ -2953,7 +3099,7 @@
       <c r="CN10" s="24"/>
       <c r="CO10" s="24"/>
     </row>
-    <row r="11" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2961,7 +3107,7 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -3053,7 +3199,7 @@
       <c r="CN11" s="24"/>
       <c r="CO11" s="24"/>
     </row>
-    <row r="12" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3061,7 +3207,7 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -3153,7 +3299,7 @@
       <c r="CN12" s="24"/>
       <c r="CO12" s="24"/>
     </row>
-    <row r="13" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3161,7 +3307,7 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -3253,7 +3399,7 @@
       <c r="CN13" s="24"/>
       <c r="CO13" s="24"/>
     </row>
-    <row r="14" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3261,7 +3407,7 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -3353,7 +3499,7 @@
       <c r="CN14" s="24"/>
       <c r="CO14" s="24"/>
     </row>
-    <row r="15" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3361,7 +3507,7 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -3453,7 +3599,7 @@
       <c r="CN15" s="24"/>
       <c r="CO15" s="24"/>
     </row>
-    <row r="16" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3461,7 +3607,7 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -3553,7 +3699,7 @@
       <c r="CN16" s="24"/>
       <c r="CO16" s="24"/>
     </row>
-    <row r="17" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3561,7 +3707,7 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -3653,7 +3799,7 @@
       <c r="CN17" s="24"/>
       <c r="CO17" s="24"/>
     </row>
-    <row r="18" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3661,7 +3807,7 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -3753,7 +3899,7 @@
       <c r="CN18" s="24"/>
       <c r="CO18" s="24"/>
     </row>
-    <row r="19" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3761,7 +3907,7 @@
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="16"/>
@@ -3855,7 +4001,7 @@
       <c r="CN19" s="24"/>
       <c r="CO19" s="24"/>
     </row>
-    <row r="20" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3863,7 +4009,7 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -3955,7 +4101,7 @@
       <c r="CN20" s="24"/>
       <c r="CO20" s="24"/>
     </row>
-    <row r="21" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3963,7 +4109,7 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -4055,7 +4201,7 @@
       <c r="CN21" s="24"/>
       <c r="CO21" s="24"/>
     </row>
-    <row r="22" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4063,7 +4209,7 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -4155,7 +4301,7 @@
       <c r="CN22" s="24"/>
       <c r="CO22" s="24"/>
     </row>
-    <row r="23" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4163,7 +4309,7 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -4255,7 +4401,7 @@
       <c r="CN23" s="24"/>
       <c r="CO23" s="24"/>
     </row>
-    <row r="24" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4263,7 +4409,7 @@
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="59" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="16"/>
@@ -4357,7 +4503,7 @@
       <c r="CN24" s="24"/>
       <c r="CO24" s="24"/>
     </row>
-    <row r="25" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4365,7 +4511,7 @@
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -4457,7 +4603,7 @@
       <c r="CN25" s="24"/>
       <c r="CO25" s="24"/>
     </row>
-    <row r="26" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4465,7 +4611,7 @@
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -4557,7 +4703,7 @@
       <c r="CN26" s="24"/>
       <c r="CO26" s="24"/>
     </row>
-    <row r="27" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4565,7 +4711,7 @@
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -4657,7 +4803,7 @@
       <c r="CN27" s="24"/>
       <c r="CO27" s="24"/>
     </row>
-    <row r="28" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4665,7 +4811,7 @@
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -4757,7 +4903,7 @@
       <c r="CN28" s="24"/>
       <c r="CO28" s="24"/>
     </row>
-    <row r="29" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4765,7 +4911,7 @@
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -4857,7 +5003,7 @@
       <c r="CN29" s="24"/>
       <c r="CO29" s="24"/>
     </row>
-    <row r="30" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4865,7 +5011,7 @@
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="60" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="16"/>
@@ -4959,7 +5105,7 @@
       <c r="CN30" s="24"/>
       <c r="CO30" s="24"/>
     </row>
-    <row r="31" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4967,7 +5113,7 @@
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -5059,7 +5205,7 @@
       <c r="CN31" s="24"/>
       <c r="CO31" s="24"/>
     </row>
-    <row r="32" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5067,7 +5213,7 @@
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -5159,7 +5305,7 @@
       <c r="CN32" s="24"/>
       <c r="CO32" s="24"/>
     </row>
-    <row r="33" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5167,7 +5313,7 @@
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -5259,7 +5405,7 @@
       <c r="CN33" s="24"/>
       <c r="CO33" s="24"/>
     </row>
-    <row r="34" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5267,7 +5413,7 @@
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -5359,7 +5505,7 @@
       <c r="CN34" s="24"/>
       <c r="CO34" s="24"/>
     </row>
-    <row r="35" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5367,7 +5513,7 @@
       <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -5459,7 +5605,7 @@
       <c r="CN35" s="24"/>
       <c r="CO35" s="24"/>
     </row>
-    <row r="36" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5467,7 +5613,7 @@
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -5559,7 +5705,7 @@
       <c r="CN36" s="24"/>
       <c r="CO36" s="24"/>
     </row>
-    <row r="37" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5567,7 +5713,7 @@
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -5659,7 +5805,7 @@
       <c r="CN37" s="24"/>
       <c r="CO37" s="24"/>
     </row>
-    <row r="38" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5667,7 +5813,7 @@
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -5759,7 +5905,7 @@
       <c r="CN38" s="24"/>
       <c r="CO38" s="24"/>
     </row>
-    <row r="39" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5767,7 +5913,7 @@
       <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="43"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -5859,7 +6005,7 @@
       <c r="CN39" s="24"/>
       <c r="CO39" s="24"/>
     </row>
-    <row r="40" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5867,7 +6013,7 @@
       <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="16"/>
@@ -5961,7 +6107,7 @@
       <c r="CN40" s="24"/>
       <c r="CO40" s="24"/>
     </row>
-    <row r="41" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5969,7 +6115,7 @@
       <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -6061,7 +6207,7 @@
       <c r="CN41" s="24"/>
       <c r="CO41" s="24"/>
     </row>
-    <row r="42" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6069,7 +6215,7 @@
       <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -6161,7 +6307,7 @@
       <c r="CN42" s="24"/>
       <c r="CO42" s="24"/>
     </row>
-    <row r="43" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6169,7 +6315,7 @@
       <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="44"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -6261,7 +6407,7 @@
       <c r="CN43" s="24"/>
       <c r="CO43" s="24"/>
     </row>
-    <row r="44" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6269,7 +6415,7 @@
       <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="44"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -6361,7 +6507,7 @@
       <c r="CN44" s="24"/>
       <c r="CO44" s="24"/>
     </row>
-    <row r="45" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6369,7 +6515,7 @@
       <c r="B45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -6461,7 +6607,7 @@
       <c r="CN45" s="24"/>
       <c r="CO45" s="24"/>
     </row>
-    <row r="46" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6469,7 +6615,7 @@
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -6561,7 +6707,7 @@
       <c r="CN46" s="24"/>
       <c r="CO46" s="24"/>
     </row>
-    <row r="47" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6569,7 +6715,7 @@
       <c r="B47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="44"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -6661,7 +6807,7 @@
       <c r="CN47" s="24"/>
       <c r="CO47" s="24"/>
     </row>
-    <row r="48" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6669,7 +6815,7 @@
       <c r="B48" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="62" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="16"/>
@@ -6763,7 +6909,7 @@
       <c r="CN48" s="24"/>
       <c r="CO48" s="24"/>
     </row>
-    <row r="49" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6771,7 +6917,7 @@
       <c r="B49" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="45"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -6863,7 +7009,7 @@
       <c r="CN49" s="24"/>
       <c r="CO49" s="24"/>
     </row>
-    <row r="50" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6871,7 +7017,7 @@
       <c r="B50" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="45"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -6963,7 +7109,7 @@
       <c r="CN50" s="24"/>
       <c r="CO50" s="24"/>
     </row>
-    <row r="51" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="29">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6971,7 +7117,7 @@
       <c r="B51" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -7063,7 +7209,7 @@
       <c r="CN51" s="24"/>
       <c r="CO51" s="24"/>
     </row>
-    <row r="52" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7071,7 +7217,7 @@
       <c r="B52" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="45"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -7163,7 +7309,7 @@
       <c r="CN52" s="24"/>
       <c r="CO52" s="24"/>
     </row>
-    <row r="53" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7171,7 +7317,7 @@
       <c r="B53" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="45"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -7263,7 +7409,7 @@
       <c r="CN53" s="24"/>
       <c r="CO53" s="24"/>
     </row>
-    <row r="54" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="29">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7271,7 +7417,7 @@
       <c r="B54" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="45"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -7363,7 +7509,7 @@
       <c r="CN54" s="24"/>
       <c r="CO54" s="24"/>
     </row>
-    <row r="55" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7371,7 +7517,7 @@
       <c r="B55" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="45"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -7463,7 +7609,7 @@
       <c r="CN55" s="24"/>
       <c r="CO55" s="24"/>
     </row>
-    <row r="56" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7471,7 +7617,7 @@
       <c r="B56" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="45"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
@@ -7563,7 +7709,7 @@
       <c r="CN56" s="24"/>
       <c r="CO56" s="24"/>
     </row>
-    <row r="57" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7571,7 +7717,7 @@
       <c r="B57" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="16"/>
@@ -7665,7 +7811,7 @@
       <c r="CN57" s="24"/>
       <c r="CO57" s="24"/>
     </row>
-    <row r="58" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7673,7 +7819,7 @@
       <c r="B58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -7765,7 +7911,7 @@
       <c r="CN58" s="24"/>
       <c r="CO58" s="24"/>
     </row>
-    <row r="59" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7773,7 +7919,7 @@
       <c r="B59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -7865,7 +8011,7 @@
       <c r="CN59" s="24"/>
       <c r="CO59" s="24"/>
     </row>
-    <row r="60" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7873,7 +8019,7 @@
       <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="54" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="16"/>
@@ -7967,7 +8113,7 @@
       <c r="CN60" s="24"/>
       <c r="CO60" s="24"/>
     </row>
-    <row r="61" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7975,7 +8121,7 @@
       <c r="B61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="38"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -8067,7 +8213,7 @@
       <c r="CN61" s="24"/>
       <c r="CO61" s="24"/>
     </row>
-    <row r="62" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8075,7 +8221,7 @@
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -8167,7 +8313,7 @@
       <c r="CN62" s="24"/>
       <c r="CO62" s="24"/>
     </row>
-    <row r="63" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8175,7 +8321,7 @@
       <c r="B63" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -8267,7 +8413,7 @@
       <c r="CN63" s="24"/>
       <c r="CO63" s="24"/>
     </row>
-    <row r="64" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8275,7 +8421,7 @@
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
@@ -8367,7 +8513,7 @@
       <c r="CN64" s="24"/>
       <c r="CO64" s="24"/>
     </row>
-    <row r="65" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8375,7 +8521,7 @@
       <c r="B65" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="38"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -8467,7 +8613,7 @@
       <c r="CN65" s="24"/>
       <c r="CO65" s="24"/>
     </row>
-    <row r="66" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8475,7 +8621,7 @@
       <c r="B66" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D66" s="16"/>
@@ -8569,7 +8715,7 @@
       <c r="CN66" s="24"/>
       <c r="CO66" s="24"/>
     </row>
-    <row r="67" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8577,7 +8723,7 @@
       <c r="B67" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="39"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -8669,339 +8815,339 @@
       <c r="CN67" s="24"/>
       <c r="CO67" s="24"/>
     </row>
-    <row r="68" spans="1:93" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="55">
+    <row r="68" spans="1:93" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="35">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="60"/>
-      <c r="T68" s="60"/>
-      <c r="U68" s="60"/>
-      <c r="V68" s="63"/>
-      <c r="W68" s="63"/>
-      <c r="X68" s="63"/>
-      <c r="Y68" s="63"/>
-      <c r="Z68" s="63"/>
-      <c r="AA68" s="63"/>
-      <c r="AB68" s="63"/>
-      <c r="AC68" s="63"/>
-      <c r="AD68" s="63"/>
-      <c r="AE68" s="63"/>
-      <c r="AF68" s="63"/>
-      <c r="AG68" s="63"/>
-      <c r="AH68" s="63"/>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="63"/>
-      <c r="AK68" s="63"/>
-      <c r="AL68" s="63"/>
-      <c r="AM68" s="63"/>
-      <c r="AN68" s="63"/>
-      <c r="AO68" s="63"/>
-      <c r="AP68" s="63"/>
-      <c r="AQ68" s="63"/>
-      <c r="AR68" s="63"/>
-      <c r="AS68" s="63"/>
-      <c r="AT68" s="63"/>
-      <c r="AU68" s="63"/>
-      <c r="AV68" s="63"/>
-      <c r="AW68" s="63"/>
-      <c r="AX68" s="63"/>
-      <c r="AY68" s="63"/>
-      <c r="AZ68" s="63"/>
-      <c r="BA68" s="63"/>
-      <c r="BB68" s="63"/>
-      <c r="BC68" s="63"/>
-      <c r="BD68" s="63"/>
-      <c r="BE68" s="63"/>
-      <c r="BF68" s="63"/>
-      <c r="BG68" s="63"/>
-      <c r="BH68" s="63"/>
-      <c r="BI68" s="63"/>
-      <c r="BJ68" s="63"/>
-      <c r="BK68" s="63"/>
-      <c r="BL68" s="63"/>
-      <c r="BM68" s="63"/>
-      <c r="BN68" s="63"/>
-      <c r="BO68" s="63"/>
-      <c r="BP68" s="63"/>
-      <c r="BQ68" s="63"/>
-      <c r="BR68" s="63"/>
-      <c r="BS68" s="63"/>
-      <c r="BT68" s="63"/>
-      <c r="BU68" s="63"/>
-      <c r="BV68" s="63"/>
-      <c r="BW68" s="63"/>
-      <c r="BX68" s="63"/>
-      <c r="BY68" s="63"/>
-      <c r="BZ68" s="63"/>
-      <c r="CA68" s="63"/>
-      <c r="CB68" s="63"/>
-      <c r="CC68" s="63"/>
-      <c r="CD68" s="63"/>
-      <c r="CE68" s="63"/>
-      <c r="CF68" s="63"/>
-      <c r="CG68" s="63"/>
-      <c r="CH68" s="63"/>
-      <c r="CI68" s="63"/>
-      <c r="CJ68" s="63"/>
-      <c r="CK68" s="63"/>
-      <c r="CL68" s="63"/>
-      <c r="CM68" s="63"/>
-      <c r="CN68" s="63"/>
-      <c r="CO68" s="63"/>
-    </row>
-    <row r="69" spans="1:93" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="58" t="s">
+      <c r="C68" s="56"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
+      <c r="AB68" s="40"/>
+      <c r="AC68" s="40"/>
+      <c r="AD68" s="40"/>
+      <c r="AE68" s="40"/>
+      <c r="AF68" s="40"/>
+      <c r="AG68" s="40"/>
+      <c r="AH68" s="40"/>
+      <c r="AI68" s="40"/>
+      <c r="AJ68" s="40"/>
+      <c r="AK68" s="40"/>
+      <c r="AL68" s="40"/>
+      <c r="AM68" s="40"/>
+      <c r="AN68" s="40"/>
+      <c r="AO68" s="40"/>
+      <c r="AP68" s="40"/>
+      <c r="AQ68" s="40"/>
+      <c r="AR68" s="40"/>
+      <c r="AS68" s="40"/>
+      <c r="AT68" s="40"/>
+      <c r="AU68" s="40"/>
+      <c r="AV68" s="40"/>
+      <c r="AW68" s="40"/>
+      <c r="AX68" s="40"/>
+      <c r="AY68" s="40"/>
+      <c r="AZ68" s="40"/>
+      <c r="BA68" s="40"/>
+      <c r="BB68" s="40"/>
+      <c r="BC68" s="40"/>
+      <c r="BD68" s="40"/>
+      <c r="BE68" s="40"/>
+      <c r="BF68" s="40"/>
+      <c r="BG68" s="40"/>
+      <c r="BH68" s="40"/>
+      <c r="BI68" s="40"/>
+      <c r="BJ68" s="40"/>
+      <c r="BK68" s="40"/>
+      <c r="BL68" s="40"/>
+      <c r="BM68" s="40"/>
+      <c r="BN68" s="40"/>
+      <c r="BO68" s="40"/>
+      <c r="BP68" s="40"/>
+      <c r="BQ68" s="40"/>
+      <c r="BR68" s="40"/>
+      <c r="BS68" s="40"/>
+      <c r="BT68" s="40"/>
+      <c r="BU68" s="40"/>
+      <c r="BV68" s="40"/>
+      <c r="BW68" s="40"/>
+      <c r="BX68" s="40"/>
+      <c r="BY68" s="40"/>
+      <c r="BZ68" s="40"/>
+      <c r="CA68" s="40"/>
+      <c r="CB68" s="40"/>
+      <c r="CC68" s="40"/>
+      <c r="CD68" s="40"/>
+      <c r="CE68" s="40"/>
+      <c r="CF68" s="40"/>
+      <c r="CG68" s="40"/>
+      <c r="CH68" s="40"/>
+      <c r="CI68" s="40"/>
+      <c r="CJ68" s="40"/>
+      <c r="CK68" s="40"/>
+      <c r="CL68" s="40"/>
+      <c r="CM68" s="40"/>
+      <c r="CN68" s="40"/>
+      <c r="CO68" s="40"/>
+    </row>
+    <row r="69" spans="1:93" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="64">
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="41">
         <f>SUM(D5:D68)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="64">
+      <c r="E69" s="42"/>
+      <c r="F69" s="41">
         <f t="shared" ref="F69" si="1">SUM(F5:F68)</f>
         <v>0</v>
       </c>
-      <c r="G69" s="65"/>
-      <c r="H69" s="64">
+      <c r="G69" s="42"/>
+      <c r="H69" s="41">
         <f t="shared" ref="H69" si="2">SUM(H5:H68)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="65"/>
-      <c r="J69" s="64">
+      <c r="I69" s="42"/>
+      <c r="J69" s="41">
         <f t="shared" ref="J69" si="3">SUM(J5:J68)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="65"/>
-      <c r="L69" s="64">
+      <c r="K69" s="42"/>
+      <c r="L69" s="41">
         <f t="shared" ref="L69" si="4">SUM(L5:L68)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="65"/>
-      <c r="N69" s="64">
+      <c r="M69" s="42"/>
+      <c r="N69" s="41">
         <f t="shared" ref="N69" si="5">SUM(N5:N68)</f>
         <v>0</v>
       </c>
-      <c r="O69" s="65"/>
-      <c r="P69" s="64">
+      <c r="O69" s="42"/>
+      <c r="P69" s="41">
         <f t="shared" ref="P69" si="6">SUM(P5:P68)</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="64">
+      <c r="Q69" s="42"/>
+      <c r="R69" s="41">
         <f t="shared" ref="R69" si="7">SUM(R5:R68)</f>
         <v>0</v>
       </c>
-      <c r="S69" s="65"/>
-      <c r="T69" s="64">
+      <c r="S69" s="42"/>
+      <c r="T69" s="41">
         <f t="shared" ref="T69" si="8">SUM(T5:T68)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="65"/>
-      <c r="V69" s="64">
+      <c r="U69" s="42"/>
+      <c r="V69" s="41">
         <f t="shared" ref="V69" si="9">SUM(V5:V68)</f>
         <v>0</v>
       </c>
-      <c r="W69" s="65"/>
-      <c r="X69" s="64">
+      <c r="W69" s="42"/>
+      <c r="X69" s="41">
         <f t="shared" ref="X69" si="10">SUM(X5:X68)</f>
         <v>0</v>
       </c>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="64">
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="41">
         <f t="shared" ref="Z69" si="11">SUM(Z5:Z68)</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="65"/>
-      <c r="AB69" s="64">
+      <c r="AA69" s="42"/>
+      <c r="AB69" s="41">
         <f t="shared" ref="AB69" si="12">SUM(AB5:AB68)</f>
         <v>0</v>
       </c>
-      <c r="AC69" s="65"/>
-      <c r="AD69" s="64">
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="41">
         <f t="shared" ref="AD69" si="13">SUM(AD5:AD68)</f>
         <v>0</v>
       </c>
-      <c r="AE69" s="65"/>
-      <c r="AF69" s="64">
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="41">
         <f t="shared" ref="AF69" si="14">SUM(AF5:AF68)</f>
         <v>0</v>
       </c>
-      <c r="AG69" s="65"/>
-      <c r="AH69" s="64">
+      <c r="AG69" s="42"/>
+      <c r="AH69" s="41">
         <f t="shared" ref="AH69" si="15">SUM(AH5:AH68)</f>
         <v>0</v>
       </c>
-      <c r="AI69" s="65"/>
-      <c r="AJ69" s="64">
+      <c r="AI69" s="42"/>
+      <c r="AJ69" s="41">
         <f t="shared" ref="AJ69" si="16">SUM(AJ5:AJ68)</f>
         <v>0</v>
       </c>
-      <c r="AK69" s="65"/>
-      <c r="AL69" s="64">
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="41">
         <f t="shared" ref="AL69" si="17">SUM(AL5:AL68)</f>
         <v>0</v>
       </c>
-      <c r="AM69" s="65"/>
-      <c r="AN69" s="64">
+      <c r="AM69" s="42"/>
+      <c r="AN69" s="41">
         <f t="shared" ref="AN69" si="18">SUM(AN5:AN68)</f>
         <v>0</v>
       </c>
-      <c r="AO69" s="65"/>
-      <c r="AP69" s="64">
+      <c r="AO69" s="42"/>
+      <c r="AP69" s="41">
         <f t="shared" ref="AP69" si="19">SUM(AP5:AP68)</f>
         <v>0</v>
       </c>
-      <c r="AQ69" s="65"/>
-      <c r="AR69" s="64">
+      <c r="AQ69" s="42"/>
+      <c r="AR69" s="41">
         <f t="shared" ref="AR69" si="20">SUM(AR5:AR68)</f>
         <v>0</v>
       </c>
-      <c r="AS69" s="65"/>
-      <c r="AT69" s="64">
+      <c r="AS69" s="42"/>
+      <c r="AT69" s="41">
         <f t="shared" ref="AT69" si="21">SUM(AT5:AT68)</f>
         <v>0</v>
       </c>
-      <c r="AU69" s="65"/>
-      <c r="AV69" s="64">
+      <c r="AU69" s="42"/>
+      <c r="AV69" s="41">
         <f t="shared" ref="AV69" si="22">SUM(AV5:AV68)</f>
         <v>0</v>
       </c>
-      <c r="AW69" s="65"/>
-      <c r="AX69" s="64">
+      <c r="AW69" s="42"/>
+      <c r="AX69" s="41">
         <f t="shared" ref="AX69" si="23">SUM(AX5:AX68)</f>
         <v>0</v>
       </c>
-      <c r="AY69" s="65"/>
-      <c r="AZ69" s="64">
+      <c r="AY69" s="42"/>
+      <c r="AZ69" s="41">
         <f t="shared" ref="AZ69" si="24">SUM(AZ5:AZ68)</f>
         <v>0</v>
       </c>
-      <c r="BA69" s="65"/>
-      <c r="BB69" s="64">
+      <c r="BA69" s="42"/>
+      <c r="BB69" s="41">
         <f t="shared" ref="BB69" si="25">SUM(BB5:BB68)</f>
         <v>0</v>
       </c>
-      <c r="BC69" s="65"/>
-      <c r="BD69" s="64">
+      <c r="BC69" s="42"/>
+      <c r="BD69" s="41">
         <f t="shared" ref="BD69" si="26">SUM(BD5:BD68)</f>
         <v>0</v>
       </c>
-      <c r="BE69" s="65"/>
-      <c r="BF69" s="64">
+      <c r="BE69" s="42"/>
+      <c r="BF69" s="41">
         <f t="shared" ref="BF69" si="27">SUM(BF5:BF68)</f>
         <v>0</v>
       </c>
-      <c r="BG69" s="65"/>
-      <c r="BH69" s="64">
+      <c r="BG69" s="42"/>
+      <c r="BH69" s="41">
         <f t="shared" ref="BH69" si="28">SUM(BH5:BH68)</f>
         <v>0</v>
       </c>
-      <c r="BI69" s="65"/>
-      <c r="BJ69" s="64">
+      <c r="BI69" s="42"/>
+      <c r="BJ69" s="41">
         <f t="shared" ref="BJ69" si="29">SUM(BJ5:BJ68)</f>
         <v>0</v>
       </c>
-      <c r="BK69" s="65"/>
-      <c r="BL69" s="64">
+      <c r="BK69" s="42"/>
+      <c r="BL69" s="41">
         <f t="shared" ref="BL69" si="30">SUM(BL5:BL68)</f>
         <v>0</v>
       </c>
-      <c r="BM69" s="65"/>
-      <c r="BN69" s="64">
+      <c r="BM69" s="42"/>
+      <c r="BN69" s="41">
         <f t="shared" ref="BN69" si="31">SUM(BN5:BN68)</f>
         <v>0</v>
       </c>
-      <c r="BO69" s="65"/>
-      <c r="BP69" s="64">
+      <c r="BO69" s="42"/>
+      <c r="BP69" s="41">
         <f t="shared" ref="BP69" si="32">SUM(BP5:BP68)</f>
         <v>0</v>
       </c>
-      <c r="BQ69" s="65"/>
-      <c r="BR69" s="64">
+      <c r="BQ69" s="42"/>
+      <c r="BR69" s="41">
         <f t="shared" ref="BR69" si="33">SUM(BR5:BR68)</f>
         <v>0</v>
       </c>
-      <c r="BS69" s="65"/>
-      <c r="BT69" s="64">
+      <c r="BS69" s="42"/>
+      <c r="BT69" s="41">
         <f t="shared" ref="BT69" si="34">SUM(BT5:BT68)</f>
         <v>0</v>
       </c>
-      <c r="BU69" s="65"/>
-      <c r="BV69" s="64">
+      <c r="BU69" s="42"/>
+      <c r="BV69" s="41">
         <f t="shared" ref="BV69" si="35">SUM(BV5:BV68)</f>
         <v>0</v>
       </c>
-      <c r="BW69" s="65"/>
-      <c r="BX69" s="64">
+      <c r="BW69" s="42"/>
+      <c r="BX69" s="41">
         <f t="shared" ref="BX69" si="36">SUM(BX5:BX68)</f>
         <v>0</v>
       </c>
-      <c r="BY69" s="65"/>
-      <c r="BZ69" s="64">
+      <c r="BY69" s="42"/>
+      <c r="BZ69" s="41">
         <f t="shared" ref="BZ69" si="37">SUM(BZ5:BZ68)</f>
         <v>0</v>
       </c>
-      <c r="CA69" s="65"/>
-      <c r="CB69" s="64">
+      <c r="CA69" s="42"/>
+      <c r="CB69" s="41">
         <f t="shared" ref="CB69" si="38">SUM(CB5:CB68)</f>
         <v>0</v>
       </c>
-      <c r="CC69" s="65"/>
-      <c r="CD69" s="64">
+      <c r="CC69" s="42"/>
+      <c r="CD69" s="41">
         <f t="shared" ref="CD69" si="39">SUM(CD5:CD68)</f>
         <v>0</v>
       </c>
-      <c r="CE69" s="65"/>
-      <c r="CF69" s="64">
+      <c r="CE69" s="42"/>
+      <c r="CF69" s="41">
         <f t="shared" ref="CF69" si="40">SUM(CF5:CF68)</f>
         <v>0</v>
       </c>
-      <c r="CG69" s="65"/>
-      <c r="CH69" s="64">
+      <c r="CG69" s="42"/>
+      <c r="CH69" s="41">
         <f t="shared" ref="CH69" si="41">SUM(CH5:CH68)</f>
         <v>0</v>
       </c>
-      <c r="CI69" s="65"/>
-      <c r="CJ69" s="64">
+      <c r="CI69" s="42"/>
+      <c r="CJ69" s="41">
         <f t="shared" ref="CJ69" si="42">SUM(CJ5:CJ68)</f>
         <v>0</v>
       </c>
-      <c r="CK69" s="65"/>
-      <c r="CL69" s="64">
+      <c r="CK69" s="42"/>
+      <c r="CL69" s="41">
         <f t="shared" ref="CL69" si="43">SUM(CL5:CL68)</f>
         <v>0</v>
       </c>
-      <c r="CM69" s="65"/>
-      <c r="CN69" s="64">
+      <c r="CM69" s="42"/>
+      <c r="CN69" s="41">
         <f t="shared" ref="CN69" si="44">SUM(CN5:CN68)</f>
         <v>0</v>
       </c>
-      <c r="CO69" s="65"/>
-    </row>
-    <row r="70" spans="1:93" x14ac:dyDescent="0.35">
+      <c r="CO69" s="42"/>
+    </row>
+    <row r="70" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -9012,7 +9158,7 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -9023,7 +9169,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -9034,7 +9180,7 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -9045,7 +9191,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -9056,7 +9202,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -9067,7 +9213,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -9078,7 +9224,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -9089,7 +9235,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -9100,7 +9246,7 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -9111,7 +9257,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:93" x14ac:dyDescent="0.2">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -9122,7 +9268,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -9133,7 +9279,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -9144,7 +9290,7 @@
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
@@ -9155,7 +9301,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
@@ -9166,7 +9312,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
@@ -9177,7 +9323,7 @@
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -9188,7 +9334,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -9199,7 +9345,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -9210,7 +9356,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -9221,7 +9367,7 @@
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -9232,7 +9378,7 @@
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -9243,7 +9389,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
@@ -9254,7 +9400,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -9265,7 +9411,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
@@ -9276,7 +9422,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
@@ -9287,7 +9433,7 @@
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -9298,7 +9444,7 @@
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -9309,7 +9455,7 @@
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
@@ -9320,7 +9466,7 @@
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -9331,7 +9477,7 @@
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -9342,7 +9488,7 @@
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
@@ -9353,7 +9499,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -9364,7 +9510,7 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
@@ -9375,7 +9521,7 @@
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
@@ -9386,7 +9532,7 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
@@ -9397,7 +9543,7 @@
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -9408,7 +9554,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -9419,7 +9565,7 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
@@ -9430,7 +9576,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -9441,7 +9587,7 @@
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -9452,7 +9598,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -9463,7 +9609,7 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -9474,7 +9620,7 @@
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
@@ -9485,7 +9631,7 @@
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
@@ -9496,7 +9642,7 @@
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
@@ -9507,7 +9653,7 @@
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
@@ -9518,7 +9664,7 @@
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
@@ -9529,7 +9675,7 @@
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
@@ -9540,7 +9686,7 @@
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
@@ -9551,7 +9697,7 @@
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
     </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
@@ -9562,7 +9708,7 @@
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
@@ -9573,7 +9719,7 @@
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
@@ -9584,7 +9730,7 @@
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
     </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
@@ -9595,7 +9741,7 @@
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
     </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
@@ -9606,7 +9752,7 @@
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
@@ -9617,7 +9763,7 @@
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
@@ -9628,7 +9774,7 @@
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
     </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
@@ -9639,7 +9785,7 @@
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
@@ -9650,7 +9796,7 @@
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
     </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
@@ -9661,7 +9807,7 @@
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
     </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -9672,7 +9818,7 @@
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
@@ -9683,7 +9829,7 @@
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -9694,7 +9840,7 @@
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
@@ -9705,7 +9851,7 @@
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -9716,7 +9862,7 @@
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
@@ -9727,7 +9873,7 @@
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -9738,7 +9884,7 @@
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -9749,7 +9895,7 @@
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
@@ -9760,7 +9906,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -9771,7 +9917,7 @@
       <c r="J139" s="15"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
@@ -9782,7 +9928,7 @@
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
@@ -9793,7 +9939,7 @@
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
@@ -9804,7 +9950,7 @@
       <c r="J142" s="15"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
@@ -9815,7 +9961,7 @@
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -9826,7 +9972,7 @@
       <c r="J144" s="15"/>
       <c r="K144" s="15"/>
     </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
@@ -9837,7 +9983,7 @@
       <c r="J145" s="15"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -9848,7 +9994,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
@@ -9859,7 +10005,7 @@
       <c r="J147" s="15"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -9870,7 +10016,7 @@
       <c r="J148" s="15"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
@@ -9881,7 +10027,7 @@
       <c r="J149" s="15"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -9892,7 +10038,7 @@
       <c r="J150" s="15"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -9903,7 +10049,7 @@
       <c r="J151" s="15"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -9914,7 +10060,7 @@
       <c r="J152" s="15"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -9925,7 +10071,7 @@
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
     </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -9936,7 +10082,7 @@
       <c r="J154" s="15"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -9947,7 +10093,7 @@
       <c r="J155" s="15"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -9958,7 +10104,7 @@
       <c r="J156" s="15"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -9969,7 +10115,7 @@
       <c r="J157" s="15"/>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -9980,7 +10126,7 @@
       <c r="J158" s="15"/>
       <c r="K158" s="15"/>
     </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -9991,7 +10137,7 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
     </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -10002,7 +10148,7 @@
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -10013,7 +10159,7 @@
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -10024,7 +10170,7 @@
       <c r="J162" s="15"/>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -10035,7 +10181,7 @@
       <c r="J163" s="15"/>
       <c r="K163" s="15"/>
     </row>
-    <row r="164" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -10046,7 +10192,7 @@
       <c r="J164" s="15"/>
       <c r="K164" s="15"/>
     </row>
-    <row r="165" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
@@ -10057,7 +10203,7 @@
       <c r="J165" s="15"/>
       <c r="K165" s="15"/>
     </row>
-    <row r="166" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -10068,7 +10214,7 @@
       <c r="J166" s="15"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -10079,7 +10225,7 @@
       <c r="J167" s="15"/>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -10090,7 +10236,7 @@
       <c r="J168" s="15"/>
       <c r="K168" s="15"/>
     </row>
-    <row r="169" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -10101,7 +10247,7 @@
       <c r="J169" s="15"/>
       <c r="K169" s="15"/>
     </row>
-    <row r="170" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -10112,7 +10258,7 @@
       <c r="J170" s="15"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -10123,7 +10269,7 @@
       <c r="J171" s="15"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -10134,7 +10280,7 @@
       <c r="J172" s="15"/>
       <c r="K172" s="15"/>
     </row>
-    <row r="173" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -10145,7 +10291,7 @@
       <c r="J173" s="15"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -10156,7 +10302,7 @@
       <c r="J174" s="15"/>
       <c r="K174" s="15"/>
     </row>
-    <row r="175" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -10167,7 +10313,7 @@
       <c r="J175" s="15"/>
       <c r="K175" s="15"/>
     </row>
-    <row r="176" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -10178,7 +10324,7 @@
       <c r="J176" s="15"/>
       <c r="K176" s="15"/>
     </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -10189,7 +10335,7 @@
       <c r="J177" s="15"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -10200,7 +10346,7 @@
       <c r="J178" s="15"/>
       <c r="K178" s="15"/>
     </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -10211,7 +10357,7 @@
       <c r="J179" s="15"/>
       <c r="K179" s="15"/>
     </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -10222,7 +10368,7 @@
       <c r="J180" s="15"/>
       <c r="K180" s="15"/>
     </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -10233,7 +10379,7 @@
       <c r="J181" s="15"/>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -10244,7 +10390,7 @@
       <c r="J182" s="15"/>
       <c r="K182" s="15"/>
     </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -10255,7 +10401,7 @@
       <c r="J183" s="15"/>
       <c r="K183" s="15"/>
     </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -10266,7 +10412,7 @@
       <c r="J184" s="15"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -10277,7 +10423,7 @@
       <c r="J185" s="15"/>
       <c r="K185" s="15"/>
     </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -10288,7 +10434,7 @@
       <c r="J186" s="15"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -10299,7 +10445,7 @@
       <c r="J187" s="15"/>
       <c r="K187" s="15"/>
     </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -10310,7 +10456,7 @@
       <c r="J188" s="15"/>
       <c r="K188" s="15"/>
     </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -10321,7 +10467,7 @@
       <c r="J189" s="15"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -10332,7 +10478,7 @@
       <c r="J190" s="15"/>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -10343,7 +10489,7 @@
       <c r="J191" s="15"/>
       <c r="K191" s="15"/>
     </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -10354,7 +10500,7 @@
       <c r="J192" s="15"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -10365,7 +10511,7 @@
       <c r="J193" s="15"/>
       <c r="K193" s="15"/>
     </row>
-    <row r="194" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -10376,7 +10522,7 @@
       <c r="J194" s="15"/>
       <c r="K194" s="15"/>
     </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -10387,7 +10533,7 @@
       <c r="J195" s="15"/>
       <c r="K195" s="15"/>
     </row>
-    <row r="196" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -10398,7 +10544,7 @@
       <c r="J196" s="15"/>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -10409,7 +10555,7 @@
       <c r="J197" s="15"/>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -10420,7 +10566,7 @@
       <c r="J198" s="15"/>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -10431,7 +10577,7 @@
       <c r="J199" s="15"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -10442,7 +10588,7 @@
       <c r="J200" s="15"/>
       <c r="K200" s="15"/>
     </row>
-    <row r="201" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -10453,7 +10599,7 @@
       <c r="J201" s="15"/>
       <c r="K201" s="15"/>
     </row>
-    <row r="202" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -10464,7 +10610,7 @@
       <c r="J202" s="15"/>
       <c r="K202" s="15"/>
     </row>
-    <row r="203" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -10475,7 +10621,7 @@
       <c r="J203" s="15"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -10486,7 +10632,7 @@
       <c r="J204" s="15"/>
       <c r="K204" s="15"/>
     </row>
-    <row r="205" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -10497,7 +10643,7 @@
       <c r="J205" s="15"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -10508,7 +10654,7 @@
       <c r="J206" s="15"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -10519,7 +10665,7 @@
       <c r="J207" s="15"/>
       <c r="K207" s="15"/>
     </row>
-    <row r="208" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -10530,7 +10676,7 @@
       <c r="J208" s="15"/>
       <c r="K208" s="15"/>
     </row>
-    <row r="209" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -10541,7 +10687,7 @@
       <c r="J209" s="15"/>
       <c r="K209" s="15"/>
     </row>
-    <row r="210" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -10552,7 +10698,7 @@
       <c r="J210" s="15"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -10563,7 +10709,7 @@
       <c r="J211" s="15"/>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -10574,7 +10720,7 @@
       <c r="J212" s="15"/>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -10585,7 +10731,7 @@
       <c r="J213" s="15"/>
       <c r="K213" s="15"/>
     </row>
-    <row r="214" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C214" s="15"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -10596,7 +10742,7 @@
       <c r="J214" s="15"/>
       <c r="K214" s="15"/>
     </row>
-    <row r="215" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -10607,7 +10753,7 @@
       <c r="J215" s="15"/>
       <c r="K215" s="15"/>
     </row>
-    <row r="216" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
@@ -10618,7 +10764,7 @@
       <c r="J216" s="15"/>
       <c r="K216" s="15"/>
     </row>
-    <row r="217" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -10629,7 +10775,7 @@
       <c r="J217" s="15"/>
       <c r="K217" s="15"/>
     </row>
-    <row r="218" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -10640,7 +10786,7 @@
       <c r="J218" s="15"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
@@ -10651,7 +10797,7 @@
       <c r="J219" s="15"/>
       <c r="K219" s="15"/>
     </row>
-    <row r="220" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -10662,7 +10808,7 @@
       <c r="J220" s="15"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -10673,7 +10819,7 @@
       <c r="J221" s="15"/>
       <c r="K221" s="15"/>
     </row>
-    <row r="222" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -10684,7 +10830,7 @@
       <c r="J222" s="15"/>
       <c r="K222" s="15"/>
     </row>
-    <row r="223" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
@@ -10695,7 +10841,7 @@
       <c r="J223" s="15"/>
       <c r="K223" s="15"/>
     </row>
-    <row r="224" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
@@ -10706,7 +10852,7 @@
       <c r="J224" s="15"/>
       <c r="K224" s="15"/>
     </row>
-    <row r="225" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
@@ -10717,7 +10863,7 @@
       <c r="J225" s="15"/>
       <c r="K225" s="15"/>
     </row>
-    <row r="226" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
@@ -10728,7 +10874,7 @@
       <c r="J226" s="15"/>
       <c r="K226" s="15"/>
     </row>
-    <row r="227" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
@@ -10739,7 +10885,7 @@
       <c r="J227" s="15"/>
       <c r="K227" s="15"/>
     </row>
-    <row r="228" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
@@ -10750,7 +10896,7 @@
       <c r="J228" s="15"/>
       <c r="K228" s="15"/>
     </row>
-    <row r="229" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
@@ -10761,7 +10907,7 @@
       <c r="J229" s="15"/>
       <c r="K229" s="15"/>
     </row>
-    <row r="230" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
@@ -10772,7 +10918,7 @@
       <c r="J230" s="15"/>
       <c r="K230" s="15"/>
     </row>
-    <row r="231" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
@@ -10783,7 +10929,7 @@
       <c r="J231" s="15"/>
       <c r="K231" s="15"/>
     </row>
-    <row r="232" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C232" s="15"/>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
@@ -10794,7 +10940,7 @@
       <c r="J232" s="15"/>
       <c r="K232" s="15"/>
     </row>
-    <row r="233" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C233" s="15"/>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
@@ -10805,7 +10951,7 @@
       <c r="J233" s="15"/>
       <c r="K233" s="15"/>
     </row>
-    <row r="234" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C234" s="15"/>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
@@ -10816,7 +10962,7 @@
       <c r="J234" s="15"/>
       <c r="K234" s="15"/>
     </row>
-    <row r="235" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
@@ -10827,7 +10973,7 @@
       <c r="J235" s="15"/>
       <c r="K235" s="15"/>
     </row>
-    <row r="236" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
@@ -10838,7 +10984,7 @@
       <c r="J236" s="15"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C237" s="15"/>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
@@ -10849,7 +10995,7 @@
       <c r="J237" s="15"/>
       <c r="K237" s="15"/>
     </row>
-    <row r="238" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
@@ -10860,7 +11006,7 @@
       <c r="J238" s="15"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
@@ -10871,7 +11017,7 @@
       <c r="J239" s="15"/>
       <c r="K239" s="15"/>
     </row>
-    <row r="240" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
@@ -10882,7 +11028,7 @@
       <c r="J240" s="15"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
@@ -10893,7 +11039,7 @@
       <c r="J241" s="15"/>
       <c r="K241" s="15"/>
     </row>
-    <row r="242" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
@@ -10904,7 +11050,7 @@
       <c r="J242" s="15"/>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
@@ -10915,7 +11061,7 @@
       <c r="J243" s="15"/>
       <c r="K243" s="15"/>
     </row>
-    <row r="244" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C244" s="15"/>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
@@ -10926,7 +11072,7 @@
       <c r="J244" s="15"/>
       <c r="K244" s="15"/>
     </row>
-    <row r="245" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C245" s="15"/>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
@@ -10937,7 +11083,7 @@
       <c r="J245" s="15"/>
       <c r="K245" s="15"/>
     </row>
-    <row r="246" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
@@ -10948,7 +11094,7 @@
       <c r="J246" s="15"/>
       <c r="K246" s="15"/>
     </row>
-    <row r="247" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C247" s="15"/>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
@@ -10959,7 +11105,7 @@
       <c r="J247" s="15"/>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C248" s="15"/>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
@@ -10970,7 +11116,7 @@
       <c r="J248" s="15"/>
       <c r="K248" s="15"/>
     </row>
-    <row r="249" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C249" s="15"/>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
@@ -10981,7 +11127,7 @@
       <c r="J249" s="15"/>
       <c r="K249" s="15"/>
     </row>
-    <row r="250" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C250" s="15"/>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
@@ -10992,7 +11138,7 @@
       <c r="J250" s="15"/>
       <c r="K250" s="15"/>
     </row>
-    <row r="251" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
@@ -11003,7 +11149,7 @@
       <c r="J251" s="15"/>
       <c r="K251" s="15"/>
     </row>
-    <row r="252" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C252" s="15"/>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
@@ -11014,7 +11160,7 @@
       <c r="J252" s="15"/>
       <c r="K252" s="15"/>
     </row>
-    <row r="253" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C253" s="15"/>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
@@ -11025,7 +11171,7 @@
       <c r="J253" s="15"/>
       <c r="K253" s="15"/>
     </row>
-    <row r="254" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C254" s="15"/>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
@@ -11036,7 +11182,7 @@
       <c r="J254" s="15"/>
       <c r="K254" s="15"/>
     </row>
-    <row r="255" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
@@ -11047,7 +11193,7 @@
       <c r="J255" s="15"/>
       <c r="K255" s="15"/>
     </row>
-    <row r="256" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
@@ -11058,7 +11204,7 @@
       <c r="J256" s="15"/>
       <c r="K256" s="15"/>
     </row>
-    <row r="257" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
@@ -11069,7 +11215,7 @@
       <c r="J257" s="15"/>
       <c r="K257" s="15"/>
     </row>
-    <row r="258" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
@@ -11080,7 +11226,7 @@
       <c r="J258" s="15"/>
       <c r="K258" s="15"/>
     </row>
-    <row r="259" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
@@ -11091,7 +11237,7 @@
       <c r="J259" s="15"/>
       <c r="K259" s="15"/>
     </row>
-    <row r="260" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
@@ -11102,7 +11248,7 @@
       <c r="J260" s="15"/>
       <c r="K260" s="15"/>
     </row>
-    <row r="261" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
@@ -11113,7 +11259,7 @@
       <c r="J261" s="15"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
@@ -11124,7 +11270,7 @@
       <c r="J262" s="15"/>
       <c r="K262" s="15"/>
     </row>
-    <row r="263" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C263" s="15"/>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
@@ -11135,7 +11281,7 @@
       <c r="J263" s="15"/>
       <c r="K263" s="15"/>
     </row>
-    <row r="264" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C264" s="15"/>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
@@ -11146,7 +11292,7 @@
       <c r="J264" s="15"/>
       <c r="K264" s="15"/>
     </row>
-    <row r="265" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C265" s="15"/>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
@@ -11157,7 +11303,7 @@
       <c r="J265" s="15"/>
       <c r="K265" s="15"/>
     </row>
-    <row r="266" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
@@ -11168,7 +11314,7 @@
       <c r="J266" s="15"/>
       <c r="K266" s="15"/>
     </row>
-    <row r="267" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
@@ -11179,7 +11325,7 @@
       <c r="J267" s="15"/>
       <c r="K267" s="15"/>
     </row>
-    <row r="268" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
@@ -11190,7 +11336,7 @@
       <c r="J268" s="15"/>
       <c r="K268" s="15"/>
     </row>
-    <row r="269" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
@@ -11201,7 +11347,7 @@
       <c r="J269" s="15"/>
       <c r="K269" s="15"/>
     </row>
-    <row r="270" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
@@ -11212,7 +11358,7 @@
       <c r="J270" s="15"/>
       <c r="K270" s="15"/>
     </row>
-    <row r="271" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
@@ -11223,7 +11369,7 @@
       <c r="J271" s="15"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
@@ -11234,7 +11380,7 @@
       <c r="J272" s="15"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
@@ -11245,7 +11391,7 @@
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
     </row>
-    <row r="274" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C274" s="15"/>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
@@ -11256,7 +11402,7 @@
       <c r="J274" s="15"/>
       <c r="K274" s="15"/>
     </row>
-    <row r="275" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C275" s="15"/>
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
@@ -11267,7 +11413,7 @@
       <c r="J275" s="15"/>
       <c r="K275" s="15"/>
     </row>
-    <row r="276" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C276" s="15"/>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
@@ -11278,7 +11424,7 @@
       <c r="J276" s="15"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C277" s="15"/>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
@@ -11289,7 +11435,7 @@
       <c r="J277" s="15"/>
       <c r="K277" s="15"/>
     </row>
-    <row r="278" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C278" s="15"/>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
@@ -11300,7 +11446,7 @@
       <c r="J278" s="15"/>
       <c r="K278" s="15"/>
     </row>
-    <row r="279" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C279" s="15"/>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
@@ -11311,7 +11457,7 @@
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
     </row>
-    <row r="280" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C280" s="15"/>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
@@ -11322,7 +11468,7 @@
       <c r="J280" s="15"/>
       <c r="K280" s="15"/>
     </row>
-    <row r="281" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C281" s="15"/>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
@@ -11333,7 +11479,7 @@
       <c r="J281" s="15"/>
       <c r="K281" s="15"/>
     </row>
-    <row r="282" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C282" s="15"/>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
@@ -11344,7 +11490,7 @@
       <c r="J282" s="15"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C283" s="15"/>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
@@ -11355,7 +11501,7 @@
       <c r="J283" s="15"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C284" s="15"/>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
@@ -11366,7 +11512,7 @@
       <c r="J284" s="15"/>
       <c r="K284" s="15"/>
     </row>
-    <row r="285" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C285" s="15"/>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
@@ -11377,7 +11523,7 @@
       <c r="J285" s="15"/>
       <c r="K285" s="15"/>
     </row>
-    <row r="286" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C286" s="15"/>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
@@ -11388,7 +11534,7 @@
       <c r="J286" s="15"/>
       <c r="K286" s="15"/>
     </row>
-    <row r="287" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C287" s="15"/>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
@@ -11399,7 +11545,7 @@
       <c r="J287" s="15"/>
       <c r="K287" s="15"/>
     </row>
-    <row r="288" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C288" s="15"/>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
@@ -11410,7 +11556,7 @@
       <c r="J288" s="15"/>
       <c r="K288" s="15"/>
     </row>
-    <row r="289" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C289" s="15"/>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
@@ -11421,7 +11567,7 @@
       <c r="J289" s="15"/>
       <c r="K289" s="15"/>
     </row>
-    <row r="290" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C290" s="15"/>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
@@ -11432,7 +11578,7 @@
       <c r="J290" s="15"/>
       <c r="K290" s="15"/>
     </row>
-    <row r="291" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C291" s="15"/>
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
@@ -11443,7 +11589,7 @@
       <c r="J291" s="15"/>
       <c r="K291" s="15"/>
     </row>
-    <row r="292" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C292" s="15"/>
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
@@ -11454,7 +11600,7 @@
       <c r="J292" s="15"/>
       <c r="K292" s="15"/>
     </row>
-    <row r="293" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C293" s="15"/>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
@@ -11465,7 +11611,7 @@
       <c r="J293" s="15"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C294" s="15"/>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
@@ -11476,7 +11622,7 @@
       <c r="J294" s="15"/>
       <c r="K294" s="15"/>
     </row>
-    <row r="295" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C295" s="15"/>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
@@ -11487,7 +11633,7 @@
       <c r="J295" s="15"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
@@ -11498,7 +11644,7 @@
       <c r="J296" s="15"/>
       <c r="K296" s="15"/>
     </row>
-    <row r="297" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
@@ -11509,7 +11655,7 @@
       <c r="J297" s="15"/>
       <c r="K297" s="15"/>
     </row>
-    <row r="298" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C298" s="15"/>
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
@@ -11520,7 +11666,7 @@
       <c r="J298" s="15"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C299" s="15"/>
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
@@ -11531,7 +11677,7 @@
       <c r="J299" s="15"/>
       <c r="K299" s="15"/>
     </row>
-    <row r="300" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
@@ -11542,7 +11688,7 @@
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C301" s="15"/>
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
@@ -11553,7 +11699,7 @@
       <c r="J301" s="15"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C302" s="15"/>
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
@@ -11564,7 +11710,7 @@
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C303" s="15"/>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
@@ -11575,7 +11721,7 @@
       <c r="J303" s="15"/>
       <c r="K303" s="15"/>
     </row>
-    <row r="304" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C304" s="15"/>
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
@@ -11586,7 +11732,7 @@
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C305" s="15"/>
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
@@ -11597,7 +11743,7 @@
       <c r="J305" s="15"/>
       <c r="K305" s="15"/>
     </row>
-    <row r="306" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C306" s="15"/>
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
@@ -11608,7 +11754,7 @@
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C307" s="15"/>
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
@@ -11619,7 +11765,7 @@
       <c r="J307" s="15"/>
       <c r="K307" s="15"/>
     </row>
-    <row r="308" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C308" s="15"/>
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
@@ -11630,7 +11776,7 @@
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C309" s="15"/>
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
@@ -11641,7 +11787,7 @@
       <c r="J309" s="15"/>
       <c r="K309" s="15"/>
     </row>
-    <row r="310" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C310" s="15"/>
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
@@ -11652,7 +11798,7 @@
       <c r="J310" s="15"/>
       <c r="K310" s="15"/>
     </row>
-    <row r="311" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C311" s="15"/>
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
@@ -11663,7 +11809,7 @@
       <c r="J311" s="15"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C312" s="15"/>
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
@@ -11674,7 +11820,7 @@
       <c r="J312" s="15"/>
       <c r="K312" s="15"/>
     </row>
-    <row r="313" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C313" s="15"/>
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
@@ -11685,7 +11831,7 @@
       <c r="J313" s="15"/>
       <c r="K313" s="15"/>
     </row>
-    <row r="314" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C314" s="15"/>
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
@@ -11696,7 +11842,7 @@
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C315" s="15"/>
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
@@ -11707,7 +11853,7 @@
       <c r="J315" s="15"/>
       <c r="K315" s="15"/>
     </row>
-    <row r="316" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C316" s="15"/>
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
@@ -11718,7 +11864,7 @@
       <c r="J316" s="15"/>
       <c r="K316" s="15"/>
     </row>
-    <row r="317" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C317" s="15"/>
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
@@ -11729,7 +11875,7 @@
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
     </row>
-    <row r="318" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C318" s="15"/>
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
@@ -11740,7 +11886,7 @@
       <c r="J318" s="15"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C319" s="15"/>
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
@@ -11751,7 +11897,7 @@
       <c r="J319" s="15"/>
       <c r="K319" s="15"/>
     </row>
-    <row r="320" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C320" s="15"/>
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
@@ -11762,7 +11908,7 @@
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
     </row>
-    <row r="321" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C321" s="15"/>
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
@@ -11773,7 +11919,7 @@
       <c r="J321" s="15"/>
       <c r="K321" s="15"/>
     </row>
-    <row r="322" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C322" s="15"/>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
@@ -11784,7 +11930,7 @@
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
     </row>
-    <row r="323" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
@@ -11795,7 +11941,7 @@
       <c r="J323" s="15"/>
       <c r="K323" s="15"/>
     </row>
-    <row r="324" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
@@ -11806,7 +11952,7 @@
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C325" s="15"/>
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
@@ -11817,7 +11963,7 @@
       <c r="J325" s="15"/>
       <c r="K325" s="15"/>
     </row>
-    <row r="326" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C326" s="15"/>
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
@@ -11828,7 +11974,7 @@
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
@@ -11839,7 +11985,7 @@
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
     </row>
-    <row r="328" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C328" s="15"/>
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
@@ -11850,7 +11996,7 @@
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
     </row>
-    <row r="329" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C329" s="15"/>
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
@@ -11861,7 +12007,7 @@
       <c r="J329" s="15"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C330" s="15"/>
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
@@ -11872,7 +12018,7 @@
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C331" s="15"/>
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
@@ -11883,7 +12029,7 @@
       <c r="J331" s="15"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C332" s="15"/>
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
@@ -11894,7 +12040,7 @@
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
     </row>
-    <row r="333" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C333" s="15"/>
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
@@ -11905,7 +12051,7 @@
       <c r="J333" s="15"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C334" s="15"/>
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
@@ -11916,7 +12062,7 @@
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
     </row>
-    <row r="335" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C335" s="15"/>
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
@@ -11927,7 +12073,7 @@
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
     </row>
-    <row r="336" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C336" s="15"/>
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
@@ -11938,7 +12084,7 @@
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
     </row>
-    <row r="337" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C337" s="15"/>
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
@@ -11949,7 +12095,7 @@
       <c r="J337" s="15"/>
       <c r="K337" s="15"/>
     </row>
-    <row r="338" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C338" s="15"/>
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
@@ -11960,7 +12106,7 @@
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
     </row>
-    <row r="339" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C339" s="15"/>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
@@ -11971,7 +12117,7 @@
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
     </row>
-    <row r="340" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
@@ -11982,7 +12128,7 @@
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
     </row>
-    <row r="341" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C341" s="15"/>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
@@ -11993,7 +12139,7 @@
       <c r="J341" s="15"/>
       <c r="K341" s="15"/>
     </row>
-    <row r="342" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C342" s="15"/>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
@@ -12004,7 +12150,7 @@
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
     </row>
-    <row r="343" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C343" s="15"/>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
@@ -12015,7 +12161,7 @@
       <c r="J343" s="15"/>
       <c r="K343" s="15"/>
     </row>
-    <row r="344" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C344" s="15"/>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
@@ -12026,7 +12172,7 @@
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
     </row>
-    <row r="345" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C345" s="15"/>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
@@ -12037,7 +12183,7 @@
       <c r="J345" s="15"/>
       <c r="K345" s="15"/>
     </row>
-    <row r="346" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C346" s="15"/>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
@@ -12048,7 +12194,7 @@
       <c r="J346" s="15"/>
       <c r="K346" s="15"/>
     </row>
-    <row r="347" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C347" s="15"/>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
@@ -12059,7 +12205,7 @@
       <c r="J347" s="15"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C348" s="15"/>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
@@ -12070,7 +12216,7 @@
       <c r="J348" s="15"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C349" s="15"/>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
@@ -12081,7 +12227,7 @@
       <c r="J349" s="15"/>
       <c r="K349" s="15"/>
     </row>
-    <row r="350" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
@@ -12092,7 +12238,7 @@
       <c r="J350" s="15"/>
       <c r="K350" s="15"/>
     </row>
-    <row r="351" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
@@ -12103,7 +12249,7 @@
       <c r="J351" s="15"/>
       <c r="K351" s="15"/>
     </row>
-    <row r="352" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C352" s="15"/>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
@@ -12114,7 +12260,7 @@
       <c r="J352" s="15"/>
       <c r="K352" s="15"/>
     </row>
-    <row r="353" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C353" s="15"/>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
@@ -12125,7 +12271,7 @@
       <c r="J353" s="15"/>
       <c r="K353" s="15"/>
     </row>
-    <row r="354" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C354" s="15"/>
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
@@ -12136,7 +12282,7 @@
       <c r="J354" s="15"/>
       <c r="K354" s="15"/>
     </row>
-    <row r="355" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C355" s="15"/>
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
@@ -12147,7 +12293,7 @@
       <c r="J355" s="15"/>
       <c r="K355" s="15"/>
     </row>
-    <row r="356" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C356" s="15"/>
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
@@ -12158,7 +12304,7 @@
       <c r="J356" s="15"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C357" s="15"/>
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
@@ -12169,7 +12315,7 @@
       <c r="J357" s="15"/>
       <c r="K357" s="15"/>
     </row>
-    <row r="358" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C358" s="15"/>
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
@@ -12180,7 +12326,7 @@
       <c r="J358" s="15"/>
       <c r="K358" s="15"/>
     </row>
-    <row r="359" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C359" s="15"/>
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
@@ -12191,7 +12337,7 @@
       <c r="J359" s="15"/>
       <c r="K359" s="15"/>
     </row>
-    <row r="360" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C360" s="15"/>
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
@@ -12202,7 +12348,7 @@
       <c r="J360" s="15"/>
       <c r="K360" s="15"/>
     </row>
-    <row r="361" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C361" s="15"/>
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
@@ -12213,7 +12359,7 @@
       <c r="J361" s="15"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C362" s="15"/>
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
@@ -12224,7 +12370,7 @@
       <c r="J362" s="15"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C363" s="15"/>
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
@@ -12235,7 +12381,7 @@
       <c r="J363" s="15"/>
       <c r="K363" s="15"/>
     </row>
-    <row r="364" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C364" s="15"/>
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
@@ -12246,7 +12392,7 @@
       <c r="J364" s="15"/>
       <c r="K364" s="15"/>
     </row>
-    <row r="365" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C365" s="15"/>
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
@@ -12257,7 +12403,7 @@
       <c r="J365" s="15"/>
       <c r="K365" s="15"/>
     </row>
-    <row r="366" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C366" s="15"/>
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
@@ -12268,7 +12414,7 @@
       <c r="J366" s="15"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C367" s="15"/>
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
@@ -12279,7 +12425,7 @@
       <c r="J367" s="15"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C368" s="15"/>
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
@@ -12290,7 +12436,7 @@
       <c r="J368" s="15"/>
       <c r="K368" s="15"/>
     </row>
-    <row r="369" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C369" s="15"/>
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
@@ -12301,7 +12447,7 @@
       <c r="J369" s="15"/>
       <c r="K369" s="15"/>
     </row>
-    <row r="370" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C370" s="15"/>
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
@@ -12312,7 +12458,7 @@
       <c r="J370" s="15"/>
       <c r="K370" s="15"/>
     </row>
-    <row r="371" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C371" s="15"/>
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
@@ -12323,7 +12469,7 @@
       <c r="J371" s="15"/>
       <c r="K371" s="15"/>
     </row>
-    <row r="372" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C372" s="15"/>
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
@@ -12334,7 +12480,7 @@
       <c r="J372" s="15"/>
       <c r="K372" s="15"/>
     </row>
-    <row r="373" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C373" s="15"/>
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
@@ -12345,7 +12491,7 @@
       <c r="J373" s="15"/>
       <c r="K373" s="15"/>
     </row>
-    <row r="374" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C374" s="15"/>
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
@@ -12356,7 +12502,7 @@
       <c r="J374" s="15"/>
       <c r="K374" s="15"/>
     </row>
-    <row r="375" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C375" s="15"/>
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
@@ -12367,7 +12513,7 @@
       <c r="J375" s="15"/>
       <c r="K375" s="15"/>
     </row>
-    <row r="376" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C376" s="15"/>
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
@@ -12378,7 +12524,7 @@
       <c r="J376" s="15"/>
       <c r="K376" s="15"/>
     </row>
-    <row r="377" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C377" s="15"/>
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
@@ -12389,7 +12535,7 @@
       <c r="J377" s="15"/>
       <c r="K377" s="15"/>
     </row>
-    <row r="378" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C378" s="15"/>
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
@@ -12400,7 +12546,7 @@
       <c r="J378" s="15"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C379" s="15"/>
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
@@ -12411,7 +12557,7 @@
       <c r="J379" s="15"/>
       <c r="K379" s="15"/>
     </row>
-    <row r="380" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C380" s="15"/>
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
@@ -12424,38 +12570,54 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="CL69:CM69"/>
-    <mergeCell ref="CN69:CO69"/>
-    <mergeCell ref="CB69:CC69"/>
-    <mergeCell ref="CD69:CE69"/>
-    <mergeCell ref="CF69:CG69"/>
-    <mergeCell ref="CH69:CI69"/>
-    <mergeCell ref="CJ69:CK69"/>
-    <mergeCell ref="BR69:BS69"/>
-    <mergeCell ref="BT69:BU69"/>
-    <mergeCell ref="BV69:BW69"/>
-    <mergeCell ref="BX69:BY69"/>
-    <mergeCell ref="BZ69:CA69"/>
-    <mergeCell ref="BH69:BI69"/>
-    <mergeCell ref="BJ69:BK69"/>
-    <mergeCell ref="BL69:BM69"/>
-    <mergeCell ref="BN69:BO69"/>
-    <mergeCell ref="BP69:BQ69"/>
-    <mergeCell ref="AX69:AY69"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="BB69:BC69"/>
-    <mergeCell ref="BD69:BE69"/>
-    <mergeCell ref="BF69:BG69"/>
-    <mergeCell ref="AN69:AO69"/>
-    <mergeCell ref="AP69:AQ69"/>
-    <mergeCell ref="AR69:AS69"/>
-    <mergeCell ref="AT69:AU69"/>
-    <mergeCell ref="AV69:AW69"/>
-    <mergeCell ref="AD69:AE69"/>
-    <mergeCell ref="AF69:AG69"/>
-    <mergeCell ref="AH69:AI69"/>
-    <mergeCell ref="AJ69:AK69"/>
-    <mergeCell ref="AL69:AM69"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:CO2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="BF3:BG3"/>
     <mergeCell ref="CL3:CM3"/>
     <mergeCell ref="CN3:CO3"/>
     <mergeCell ref="A69:C69"/>
@@ -12480,54 +12642,38 @@
     <mergeCell ref="BR3:BS3"/>
     <mergeCell ref="BT3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A1:U2"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="AN69:AO69"/>
+    <mergeCell ref="AP69:AQ69"/>
+    <mergeCell ref="AR69:AS69"/>
+    <mergeCell ref="AT69:AU69"/>
+    <mergeCell ref="AV69:AW69"/>
+    <mergeCell ref="AD69:AE69"/>
+    <mergeCell ref="AF69:AG69"/>
+    <mergeCell ref="AH69:AI69"/>
+    <mergeCell ref="AJ69:AK69"/>
+    <mergeCell ref="AL69:AM69"/>
+    <mergeCell ref="BH69:BI69"/>
+    <mergeCell ref="BJ69:BK69"/>
+    <mergeCell ref="BL69:BM69"/>
+    <mergeCell ref="BN69:BO69"/>
+    <mergeCell ref="BP69:BQ69"/>
+    <mergeCell ref="AX69:AY69"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="BB69:BC69"/>
+    <mergeCell ref="BD69:BE69"/>
+    <mergeCell ref="BF69:BG69"/>
+    <mergeCell ref="CL69:CM69"/>
+    <mergeCell ref="CN69:CO69"/>
+    <mergeCell ref="CB69:CC69"/>
+    <mergeCell ref="CD69:CE69"/>
+    <mergeCell ref="CF69:CG69"/>
+    <mergeCell ref="CH69:CI69"/>
+    <mergeCell ref="CJ69:CK69"/>
+    <mergeCell ref="BR69:BS69"/>
+    <mergeCell ref="BT69:BU69"/>
+    <mergeCell ref="BV69:BW69"/>
+    <mergeCell ref="BX69:BY69"/>
+    <mergeCell ref="BZ69:CA69"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E68 G5:G68 I5:I68 K5:K68 M5:M68 O5:O68 Q5:Q68 U5:U68">
     <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Not Ok">
@@ -12750,29 +12896,29 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B11" location="'TBP_80-512516'!Print_Titles" display="'TBP_80-512516'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B12" location="'TBP_80-512517'!Print_Titles" display="'TBP_80-512517'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B13" location="'TBP_80-512518'!Print_Titles" display="'TBP_80-512518'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B14" location="'TBP_80-512519'!Print_Titles" display="'TBP_80-512519'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B15" location="'TBP_80-512520'!Print_Titles" display="'TBP_80-512520'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B16" location="'TBP_80-512521'!Print_Titles" display="'TBP_80-512521'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B17" location="'TBP_80-512522'!Print_Titles" display="'TBP_80-512522'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B18" location="'TBP_80-512523'!Print_Titles" display="'TBP_80-512523'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B19" location="'TBP_50-512306'!Print_Titles" display="'TBP_50-512306'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B23" location="'TBP_50-512310'!Print_Titles" display="'TBP_50-512310'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B22" location="'TBP_50-512309'!Print_Titles" display="'TBP_50-512309'!Print_Titles" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B21" location="'TBP_50-512308'!Print_Titles" display="'TBP_50-512308'!Print_Titles" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B20" location="'TBP_50-512307'!Print_Titles" display="'TBP_50-512307'!Print_Titles" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B27" location="'H113-13'!Print_Titles" display="'H113-13'!Print_Titles" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B26" location="'H112-13'!Print_Titles" display="'H112-13'!Print_Titles" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B25" location="'H111-13'!Print_Titles" display="'H111-13'!Print_Titles" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B24" location="'H110-13'!Print_Titles" display="'H110-13'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B35" location="'NB_89'!Print_Titles" display="'NB_89'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B34" location="'NB_88'!Print_Titles" display="'NB_88'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B33" location="'NB_87'!Print_Titles" display="'NB_87'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B32" location="'NB_86'!Print_Titles" display="'NB_86'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B31" location="'NB_85'!Print_Titles" display="'NB_85'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B30" location="'NB_84_'!Print_Titles" display="'NB_84_'!Print_Titles" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B11" location="'TBP_80-512516'!Print_Titles" display="'TBP_80-512516'!Print_Titles"/>
+    <hyperlink ref="B12" location="'TBP_80-512517'!Print_Titles" display="'TBP_80-512517'!Print_Titles"/>
+    <hyperlink ref="B13" location="'TBP_80-512518'!Print_Titles" display="'TBP_80-512518'!Print_Titles"/>
+    <hyperlink ref="B14" location="'TBP_80-512519'!Print_Titles" display="'TBP_80-512519'!Print_Titles"/>
+    <hyperlink ref="B15" location="'TBP_80-512520'!Print_Titles" display="'TBP_80-512520'!Print_Titles"/>
+    <hyperlink ref="B16" location="'TBP_80-512521'!Print_Titles" display="'TBP_80-512521'!Print_Titles"/>
+    <hyperlink ref="B17" location="'TBP_80-512522'!Print_Titles" display="'TBP_80-512522'!Print_Titles"/>
+    <hyperlink ref="B18" location="'TBP_80-512523'!Print_Titles" display="'TBP_80-512523'!Print_Titles"/>
+    <hyperlink ref="B19" location="'TBP_50-512306'!Print_Titles" display="'TBP_50-512306'!Print_Titles"/>
+    <hyperlink ref="B23" location="'TBP_50-512310'!Print_Titles" display="'TBP_50-512310'!Print_Titles"/>
+    <hyperlink ref="B22" location="'TBP_50-512309'!Print_Titles" display="'TBP_50-512309'!Print_Titles"/>
+    <hyperlink ref="B21" location="'TBP_50-512308'!Print_Titles" display="'TBP_50-512308'!Print_Titles"/>
+    <hyperlink ref="B20" location="'TBP_50-512307'!Print_Titles" display="'TBP_50-512307'!Print_Titles"/>
+    <hyperlink ref="B27" location="'H113-13'!Print_Titles" display="'H113-13'!Print_Titles"/>
+    <hyperlink ref="B26" location="'H112-13'!Print_Titles" display="'H112-13'!Print_Titles"/>
+    <hyperlink ref="B25" location="'H111-13'!Print_Titles" display="'H111-13'!Print_Titles"/>
+    <hyperlink ref="B24" location="'H110-13'!Print_Titles" display="'H110-13'!Print_Titles"/>
+    <hyperlink ref="B35" location="'NB_89'!Print_Titles" display="'NB_89'!Print_Titles"/>
+    <hyperlink ref="B34" location="'NB_88'!Print_Titles" display="'NB_88'!Print_Titles"/>
+    <hyperlink ref="B33" location="'NB_87'!Print_Titles" display="'NB_87'!Print_Titles"/>
+    <hyperlink ref="B32" location="'NB_86'!Print_Titles" display="'NB_86'!Print_Titles"/>
+    <hyperlink ref="B31" location="'NB_85'!Print_Titles" display="'NB_85'!Print_Titles"/>
+    <hyperlink ref="B30" location="'NB_84_'!Print_Titles" display="'NB_84_'!Print_Titles"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
